--- a/Processing/Demographics.Facebook.Processing/Data/1-DataFolha-20180607-Haddad.xlsx
+++ b/Processing/Demographics.Facebook.Processing/Data/1-DataFolha-20180607-Haddad.xlsx
@@ -590,49 +590,49 @@
         <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>0.0</v>
+        <v>4.31</v>
       </c>
       <c r="C10" s="1">
-        <v>0.0</v>
+        <v>52.57270694</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0</v>
+        <v>47.42729306</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0</v>
+        <v>7.424593968</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0</v>
+        <v>9.744779582</v>
       </c>
       <c r="G10" s="1">
-        <v>0.0</v>
+        <v>24.36194896</v>
       </c>
       <c r="H10" s="1">
-        <v>0.0</v>
+        <v>33.41067285</v>
       </c>
       <c r="I10" s="1">
-        <v>0.0</v>
+        <v>25.05800464</v>
       </c>
       <c r="J10" s="1">
-        <v>0.0</v>
+        <v>39.53488372</v>
       </c>
       <c r="K10" s="1">
-        <v>0.0</v>
+        <v>40.93023256</v>
       </c>
       <c r="L10" s="1">
-        <v>0.0</v>
+        <v>19.53488372</v>
       </c>
       <c r="M10" s="1">
-        <v>0.0</v>
+        <v>30.48498845</v>
       </c>
       <c r="N10" s="1">
-        <v>0.0</v>
+        <v>48.49884527</v>
       </c>
       <c r="O10" s="1">
-        <v>0.0</v>
+        <v>12.47113164</v>
       </c>
       <c r="P10" s="1">
-        <v>0.0</v>
+        <v>8.545034642</v>
       </c>
     </row>
     <row r="11">
